--- a/BalanceSheet/TRMB_bal.xlsx
+++ b/BalanceSheet/TRMB_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>14100000.0</v>
+        <v>302000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>14100000.0</v>
+        <v>319000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-12800000.0</v>
+        <v>339000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-20400000.0</v>
+        <v>327000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-23000000.0</v>
+        <v>312000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>290100000.0</v>
@@ -1836,19 +1836,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>11000000.0</v>
+        <v>143000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>4400000.0</v>
+        <v>131000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-18300000.0</v>
+        <v>129000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-12800000.0</v>
+        <v>145000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>900000.0</v>
+        <v>159000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>156700000.0</v>
@@ -2862,19 +2862,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-65000000.0</v>
+        <v>-210000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-2800000.0</v>
+        <v>-147000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>10100000.0</v>
+        <v>-145000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>4800000.0</v>
+        <v>-156000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>-224600000.0</v>
+        <v>-157000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>75700000.0</v>
